--- a/Source/Aura/Attribute Calcs.xlsx
+++ b/Source/Aura/Attribute Calcs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexg\Documents\Unreal Projects\Aura\Aura_UE_Version_5_3\Aura\Source\Aura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F2576A6-89CC-438C-A671-28ABCCEC10CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7958233C-35CF-43E3-8E1A-8345B68932B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9090" yWindow="710" windowWidth="26370" windowHeight="19510" xr2:uid="{A1ADA42F-FFDD-4FC2-A6CB-D156F9EB0E83}"/>
+    <workbookView xWindow="46580" yWindow="880" windowWidth="26370" windowHeight="19510" xr2:uid="{A1ADA42F-FFDD-4FC2-A6CB-D156F9EB0E83}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -102,18 +102,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -130,7 +124,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -448,7 +442,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
